--- a/outputs-GTDB-r202-archive3/c__Methanobacteria.xlsx
+++ b/outputs-GTDB-r202-archive3/c__Methanobacteria.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="c__Methanobacteria_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1037,6 +1037,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs-GTDB-r202-archive3/c__Methanobacteria.xlsx
+++ b/outputs-GTDB-r202-archive3/c__Methanobacteria.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,13 +470,13 @@
       <c r="B2" t="n">
         <v>238830.2625322471</v>
       </c>
-      <c r="C2" t="n">
-        <v>238830.2625322471</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
       <c r="B3" t="n">
         <v>233273.4605619046</v>
       </c>
-      <c r="C3" t="n">
-        <v>233273.4605619046</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,13 +516,13 @@
       <c r="B4" t="n">
         <v>298560.8717084139</v>
       </c>
-      <c r="C4" t="n">
-        <v>298560.8717084139</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,13 +539,13 @@
       <c r="B5" t="n">
         <v>-52024.4968317505</v>
       </c>
-      <c r="C5" t="n">
-        <v>-52024.4968317505</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
       <c r="B6" t="n">
         <v>310073.6752879323</v>
       </c>
-      <c r="C6" t="n">
-        <v>310073.6752879323</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -585,13 +585,13 @@
       <c r="B7" t="n">
         <v>26544.67244932984</v>
       </c>
-      <c r="C7" t="n">
-        <v>26544.67244932984</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
       <c r="B8" t="n">
         <v>307609.7456020694</v>
       </c>
-      <c r="C8" t="n">
-        <v>307609.7456020694</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
       <c r="B9" t="n">
         <v>232206.825471419</v>
       </c>
-      <c r="C9" t="n">
-        <v>232206.825471419</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -654,13 +654,13 @@
       <c r="B10" t="n">
         <v>244384.2553022614</v>
       </c>
-      <c r="C10" t="n">
-        <v>244384.2553022614</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
       <c r="B11" t="n">
         <v>322242.5092684251</v>
       </c>
-      <c r="C11" t="n">
-        <v>322242.5092684251</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -700,13 +700,13 @@
       <c r="B12" t="n">
         <v>-77272.55465137836</v>
       </c>
-      <c r="C12" t="n">
-        <v>-77272.55465137836</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -723,13 +723,13 @@
       <c r="B13" t="n">
         <v>173799.9726941124</v>
       </c>
-      <c r="C13" t="n">
-        <v>173799.9726941124</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
       <c r="B14" t="n">
         <v>295795.3619035768</v>
       </c>
-      <c r="C14" t="n">
-        <v>295795.3619035768</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
       <c r="B15" t="n">
         <v>334152.9051893558</v>
       </c>
-      <c r="C15" t="n">
-        <v>334152.9051893558</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -792,13 +792,13 @@
       <c r="B16" t="n">
         <v>240194.1760306299</v>
       </c>
-      <c r="C16" t="n">
-        <v>240194.1760306299</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
       <c r="B17" t="n">
         <v>349301.9424225882</v>
       </c>
-      <c r="C17" t="n">
-        <v>349301.9424225882</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -838,13 +838,13 @@
       <c r="B18" t="n">
         <v>344665.9557573526</v>
       </c>
-      <c r="C18" t="n">
-        <v>344665.9557573526</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
       <c r="B19" t="n">
         <v>292090.2525186938</v>
       </c>
-      <c r="C19" t="n">
-        <v>292090.2525186938</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
       <c r="B20" t="n">
         <v>142774.5600683838</v>
       </c>
-      <c r="C20" t="n">
-        <v>142774.5600683838</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -907,13 +907,13 @@
       <c r="B21" t="n">
         <v>317014.0261073643</v>
       </c>
-      <c r="C21" t="n">
-        <v>317014.0261073643</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
       <c r="B22" t="n">
         <v>33869.83536074474</v>
       </c>
-      <c r="C22" t="n">
-        <v>33869.83536074474</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -953,13 +953,13 @@
       <c r="B23" t="n">
         <v>324046.2303230773</v>
       </c>
-      <c r="C23" t="n">
-        <v>324046.2303230773</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -976,13 +976,13 @@
       <c r="B24" t="n">
         <v>99034.17292938396</v>
       </c>
-      <c r="C24" t="n">
-        <v>99034.17292938396</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
       <c r="B25" t="n">
         <v>230528.0642032497</v>
       </c>
-      <c r="C25" t="n">
-        <v>230528.0642032497</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1022,13 +1022,13 @@
       <c r="B26" t="n">
         <v>322587.7868363098</v>
       </c>
-      <c r="C26" t="n">
-        <v>322587.7868363098</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
